--- a/Exercise/python key codes.xlsx
+++ b/Exercise/python key codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Documents/GitHub/Pandas/Exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C42EB6B-50FD-0746-9E40-4E033044C981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8254D-9901-8C4A-81BC-C46348B552FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4F000839-AB86-B049-B359-1A9D7078B801}"/>
   </bookViews>
